--- a/Project_164/TestData/InputData.xlsx
+++ b/Project_164/TestData/InputData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5922A584-5449-45B1-ABAB-4B5E118E4DEB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C7FAE1-82DA-4C37-9A4B-EF5445460A39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Application_URL</t>
   </si>
@@ -190,6 +191,24 @@
   </si>
   <si>
     <t>//input[@id='pass']</t>
+  </si>
+  <si>
+    <t>Execution_Status</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>object</t>
   </si>
 </sst>
 </file>
@@ -845,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB545E1E-94AA-4F15-A63E-3A2DBD00F58F}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -976,4 +995,201 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D16AC-AA1E-47AA-98E6-5182B02E2EEC}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.15234375" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" customWidth="1"/>
+    <col min="3" max="3" width="17.69140625" customWidth="1"/>
+    <col min="4" max="4" width="17.61328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{21579D03-6835-458A-A02D-9103771D3D11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>